--- a/data/outputs/OR_elsevier/23.xlsx
+++ b/data/outputs/OR_elsevier/23.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS57"/>
+  <dimension ref="A1:BU57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +939,12 @@
           <t>2-s2.0-84950264372</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1132,6 +1148,12 @@
           <t>2-s2.0-84950289790</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1345,6 +1367,12 @@
           <t>2-s2.0-84950254034</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1566,6 +1594,12 @@
           <t>2-s2.0-84950284691</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1778,6 +1812,12 @@
         <is>
           <t>2-s2.0-84950300990</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1992,6 +2032,12 @@
           <t>2-s2.0-84950291157</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2194,6 +2240,12 @@
         <is>
           <t>2-s2.0-84950291100</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2382,6 +2434,12 @@
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2569,6 +2627,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2776,6 +2840,12 @@
           <t>2-s2.0-84949205642</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2998,6 +3068,12 @@
         <is>
           <t>2-s2.0-84949190120</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -3206,6 +3282,12 @@
           <t>2-s2.0-84949207726</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3413,6 +3495,12 @@
           <t>2-s2.0-84949228309</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3627,6 +3715,12 @@
         <is>
           <t>2-s2.0-84949191774</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3831,6 +3925,12 @@
           <t>2-s2.0-84949188998</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4055,6 +4155,12 @@
         <is>
           <t>2-s2.0-84949214976</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4251,6 +4357,12 @@
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4442,6 +4554,12 @@
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4641,6 +4759,12 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4846,6 +4970,12 @@
           <t>2-s2.0-84940380427</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5063,6 +5193,12 @@
           <t>2-s2.0-84940367378</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5288,6 +5424,12 @@
           <t>2-s2.0-84940391992</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5507,6 +5649,12 @@
           <t>2-s2.0-84940377469</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5722,6 +5870,12 @@
           <t>2-s2.0-84940389340</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5936,6 +6090,12 @@
         <is>
           <t>2-s2.0-84940385260</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6141,6 +6301,12 @@
         <is>
           <t>2-s2.0-84940375694</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -6329,6 +6495,12 @@
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6526,6 +6698,12 @@
         <v>4489687</v>
       </c>
       <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6721,6 +6899,12 @@
           <t>2-s2.0-84940382280</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6926,6 +7110,12 @@
           <t>2-s2.0-84933499150</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7147,6 +7337,12 @@
           <t>2-s2.0-84933526099</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7367,6 +7563,12 @@
         <is>
           <t>2-s2.0-84933521090</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -7575,6 +7777,12 @@
           <t>2-s2.0-84933528801</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7790,6 +7998,12 @@
           <t>2-s2.0-84933528025</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7998,6 +8212,12 @@
         <is>
           <t>2-s2.0-84933514812</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -8194,6 +8414,12 @@
       <c r="BQ37" t="inlineStr"/>
       <c r="BR37" t="inlineStr"/>
       <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8381,6 +8607,12 @@
       <c r="BQ38" t="inlineStr"/>
       <c r="BR38" t="inlineStr"/>
       <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8590,6 +8822,12 @@
           <t>2-s2.0-84924979088</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8797,6 +9035,12 @@
           <t>2-s2.0-84924991200</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9004,6 +9248,12 @@
           <t>2-s2.0-84924975156</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9218,6 +9468,12 @@
         <is>
           <t>2-s2.0-84925012989</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9423,6 +9679,12 @@
         <is>
           <t>2-s2.0-84924957462</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -9611,6 +9873,12 @@
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9798,6 +10066,12 @@
       <c r="BQ45" t="inlineStr"/>
       <c r="BR45" t="inlineStr"/>
       <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9985,6 +10259,12 @@
       <c r="BQ46" t="inlineStr"/>
       <c r="BR46" t="inlineStr"/>
       <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10198,6 +10478,12 @@
           <t>2-s2.0-84925010597</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10409,6 +10695,12 @@
           <t>2-s2.0-84922327670</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10630,6 +10922,12 @@
           <t>2-s2.0-84922284136</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10850,6 +11148,12 @@
         <is>
           <t>2-s2.0-84922337146</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -11054,6 +11358,12 @@
           <t>2-s2.0-84922272733</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11270,6 +11580,12 @@
         <is>
           <t>2-s2.0-84922291296</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -11474,6 +11790,12 @@
           <t>2-s2.0-84922320234</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11676,6 +11998,12 @@
         <is>
           <t>2-s2.0-84922309411</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -11876,6 +12204,12 @@
       <c r="BQ55" t="inlineStr"/>
       <c r="BR55" t="inlineStr"/>
       <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12067,6 +12401,12 @@
       <c r="BQ56" t="inlineStr"/>
       <c r="BR56" t="inlineStr"/>
       <c r="BS56" t="inlineStr"/>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12254,6 +12594,12 @@
       <c r="BQ57" t="inlineStr"/>
       <c r="BR57" t="inlineStr"/>
       <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
